--- a/アカウント一覧テストケース.xlsx
+++ b/アカウント一覧テストケース.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED28D38-7356-4287-8F6F-99F2192E9AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C435156-C001-4F13-97A4-08258423B544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -67,6 +68,19 @@
   </si>
   <si>
     <t>list.phpに遷移し、一覧画面が表示される</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>杉村</t>
+  </si>
+  <si>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>Windows 11／
+Chrome</t>
   </si>
   <si>
     <t>アカウント情報の表示</t>
@@ -101,7 +115,10 @@
     <t>削除フラグの表示変換</t>
   </si>
   <si>
-    <t>1.DBにdelete_flag=0と1のデータを登録する 2.一覧画面を表示する</t>
+    <t xml:space="preserve">1. phpMyAdminで任意の
+アカウントの delete_flag を 1 に更新する
+2. 一覧画面を表示する
+</t>
   </si>
   <si>
     <t>delete_flag=0は「有効」、1は「無効」と表示される</t>
@@ -126,6 +143,10 @@
     <t>update.phpに遷移しようとし、該当IDがGETで渡る</t>
   </si>
   <si>
+    <t>遷移先（update.php）は未作成のため、
+404エラーが表示されるが、URLとGETパラメータは正しく渡っていることを確認済み。</t>
+  </si>
+  <si>
     <t>削除ボタンの動作
 （遷移先未作成）</t>
   </si>
@@ -136,6 +157,9 @@
     <t>delete.phpに遷移しようとし、該当IDがGETで渡る</t>
   </si>
   <si>
+    <t>遷移先（delete.php）は未作成のため、404エラーが表示されるが、URLとGETパラメータは正しく渡っていることを確認済み。</t>
+  </si>
+  <si>
     <t>DB接続失敗時の挙動</t>
   </si>
   <si>
@@ -143,6 +167,36 @@
   </si>
   <si>
     <t>「DB接続エラー: ～」と表示され、処理が終了する</t>
+  </si>
+  <si>
+    <t>一覧画面からTOPページへの戻り</t>
+  </si>
+  <si>
+    <t>1.一覧画面表示 
+2.ナビバーの「トップ」をクリック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index.html に遷移する
+</t>
+  </si>
+  <si>
+    <t>一覧画面の表示項目確認</t>
+  </si>
+  <si>
+    <t>１.一覧画面表示</t>
+  </si>
+  <si>
+    <t>項目定義通りの順番・ラベルで表示されている</t>
+  </si>
+  <si>
+    <t>ブラウザの戻る操作</t>
+  </si>
+  <si>
+    <t>1.一覧画面表示  
+2.ブラウザの「戻る」操作</t>
+  </si>
+  <si>
+    <t>一覧画面に戻り、表示が維持される</t>
   </si>
 </sst>
 </file>
@@ -187,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,6 +340,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -319,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,15 +421,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,13 +453,13 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -737,8 +809,8 @@
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1">
@@ -783,175 +855,490 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="21">
+        <v>45893</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="123.75" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="21">
+        <v>45893</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="123.75" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="21">
+        <v>45893</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="123.75" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="123.75" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="21">
+        <v>45893</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="124.5" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="21">
+        <v>45893</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="123.75" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="21">
+        <v>45893</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="123.75" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="21">
+        <v>45893</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="123.75" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="21">
+        <v>45893</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="123.75" customHeight="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="24">
+        <v>45893</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9"/>
+    <row r="13" spans="1:9"/>
+    <row r="14" spans="1:9"/>
+    <row r="15" spans="1:9"/>
+    <row r="16" spans="1:9"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF67365-6DFC-45F4-A29C-E72EFFA58438}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="48" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="123.75" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="123.75" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="123.75" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="123.75" customHeight="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="123.75" customHeight="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-    </row>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="124.5" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="123.75" customHeight="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="123.75" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="123.75" customHeight="1"/>
+    <row r="10" spans="1:9" ht="123.75" customHeight="1"/>
+    <row r="11" spans="1:9"/>
     <row r="12" spans="1:9"/>
     <row r="13" spans="1:9"/>
     <row r="14" spans="1:9"/>
